--- a/2017-09/2017-09.xlsx
+++ b/2017-09/2017-09.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,233 @@
   </si>
   <si>
     <t>Study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>DOING</t>
+  </si>
+  <si>
+    <t>Effective python - start up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just look around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean Code - Chapter 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Difference between an object and data structure, trade off between the two of them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中大推免提交申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中大提交体检表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号以前，二级甲等以上医院或高校门诊部进行体检，需用中大的体检表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆推免系统确认复试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17:50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以前登陆系统确认复试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆推免系统确认待录取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有明确时间，尽早确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟房东拿回押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交水费，拿回押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read the starter docement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +416,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,12 +455,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,16 +491,21 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <strike val="0"/>
@@ -327,22 +583,20 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B0F0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <font>
@@ -394,27 +648,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:F20">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G20">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="DOING"/>
+        <filter val="TODO"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState ref="A2:F20">
+  <sortState ref="A2:G20">
     <sortCondition descending="1" ref="A2:A20"/>
-    <sortCondition ref="D2:D20" customList="TODO,DOING,DONE"/>
     <sortCondition ref="C2:C20" customList="Critical,Important,Less Important,Unimport"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="Time" dataDxfId="6"/>
     <tableColumn id="2" name="Content" dataDxfId="5"/>
     <tableColumn id="3" name="Importance" dataDxfId="4"/>
     <tableColumn id="4" name="Type" dataDxfId="3"/>
     <tableColumn id="5" name="Status" dataDxfId="2"/>
     <tableColumn id="6" name="Comment" dataDxfId="1"/>
+    <tableColumn id="8" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -683,22 +937,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -717,26 +972,32 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
-        <v>43002</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>43006</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>43001</v>
       </c>
@@ -750,11 +1011,12 @@
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>43001</v>
       </c>
@@ -768,11 +1030,12 @@
         <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>43001</v>
       </c>
@@ -786,157 +1049,276 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>43001</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>43006</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>43006</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>43005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>43004</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>43004</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>43004</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>43004</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>43002</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>43001</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"Work,Study,Activity,Life"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
@@ -957,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,7 +1400,12 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/2017-09/2017-09.xlsx
+++ b/2017-09/2017-09.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="sevirity">Sheet1!$C$1</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +370,22 @@
   </si>
   <si>
     <t>Read the starter docement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆期间看完Deep Learning part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面属于研究内容的放一放，先把最通用的模型熟练掌握</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL-Chapter 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish it and make a summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,6 +444,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -657,7 +675,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:G20">
+  <sortState ref="A7:G20">
     <sortCondition descending="1" ref="A2:A20"/>
     <sortCondition ref="C2:C20" customList="Critical,Important,Less Important,Unimport"/>
   </sortState>
@@ -940,7 +958,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,7 +994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43006</v>
       </c>
@@ -987,10 +1005,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>45</v>
@@ -1054,7 +1072,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43006</v>
       </c>
@@ -1068,7 +1086,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>50</v>
@@ -1079,22 +1097,22 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
-        <v>43006</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>43013</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>53</v>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1121,7 +1139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>43004</v>
       </c>
@@ -1135,31 +1153,31 @@
         <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
-        <v>43004</v>
+        <v>43006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1207,60 +1225,84 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
-        <v>43002</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>43007</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+    <row r="14" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>43002</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>43004</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>43001</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
@@ -1412,4 +1454,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>